--- a/media/SLICE/MIS/FEB 22/SLICE MASTER FILE.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE MASTER FILE.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3964,10 +3964,12 @@
       <c r="J70" t="n">
         <v>201102</v>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9750</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
@@ -3998,7 +4000,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4048,7 +4050,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4098,7 +4100,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4150,7 +4152,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4200,7 +4202,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4252,7 +4254,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4302,7 +4304,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4354,7 +4356,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4404,7 +4406,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4454,7 +4456,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4504,7 +4506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4554,7 +4556,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4604,7 +4606,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4654,7 +4656,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4704,7 +4706,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4756,7 +4758,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4808,7 +4810,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4858,7 +4860,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4908,7 +4910,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4960,7 +4962,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5010,7 +5012,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5062,7 +5064,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5112,7 +5114,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5162,7 +5164,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5212,7 +5214,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5262,7 +5264,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5312,7 +5314,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5364,7 +5366,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5414,7 +5416,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5464,7 +5466,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5516,7 +5518,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5568,7 +5570,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5618,7 +5620,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5668,7 +5670,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5720,7 +5722,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5770,7 +5772,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5820,7 +5822,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5870,7 +5872,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5922,7 +5924,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5974,7 +5976,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6026,7 +6028,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6078,7 +6080,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6095,7 +6097,7 @@
         <v>122010</v>
       </c>
       <c r="K112" t="n">
-        <v>6792</v>
+        <v>15715</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -6130,7 +6132,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6182,7 +6184,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6232,7 +6234,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6284,7 +6286,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6334,7 +6336,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6384,7 +6386,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6434,7 +6436,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6484,7 +6486,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6534,7 +6536,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6584,7 +6586,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6636,7 +6638,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6686,7 +6688,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6736,7 +6738,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6786,7 +6788,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6836,7 +6838,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6886,7 +6888,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6938,7 +6940,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6990,7 +6992,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7040,7 +7042,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7090,7 +7092,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7142,7 +7144,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7192,7 +7194,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7242,7 +7244,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7292,7 +7294,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7342,7 +7344,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7392,7 +7394,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7442,7 +7444,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7492,7 +7494,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7542,7 +7544,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7592,7 +7594,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7642,7 +7644,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7692,7 +7694,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7742,7 +7744,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7792,7 +7794,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7842,7 +7844,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7892,7 +7894,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7942,7 +7944,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7992,7 +7994,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8042,7 +8044,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8092,7 +8094,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8142,7 +8144,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8192,7 +8194,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8242,7 +8244,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8292,7 +8294,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8342,7 +8344,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8394,7 +8396,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8444,7 +8446,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8496,7 +8498,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8546,7 +8548,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8596,7 +8598,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8646,7 +8648,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8696,7 +8698,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8746,7 +8748,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GURPREET SINGH</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8796,7 +8798,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8848,7 +8850,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8900,7 +8902,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8950,7 +8952,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9000,7 +9002,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9052,7 +9054,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9102,7 +9104,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9119,7 +9121,7 @@
         <v>201301</v>
       </c>
       <c r="K172" t="n">
-        <v>3480</v>
+        <v>4380</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -9154,7 +9156,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9204,7 +9206,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9254,7 +9256,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -9304,7 +9306,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9354,7 +9356,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9404,7 +9406,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9456,7 +9458,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9506,7 +9508,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9558,7 +9560,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9608,7 +9610,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9658,7 +9660,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9708,7 +9710,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9758,7 +9760,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9808,7 +9810,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9858,7 +9860,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9908,7 +9910,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9958,7 +9960,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -10010,7 +10012,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -10062,7 +10064,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -10114,7 +10116,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -10164,7 +10166,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -10216,7 +10218,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -10266,7 +10268,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10316,7 +10318,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10368,7 +10370,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10418,7 +10420,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -10468,7 +10470,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10518,7 +10520,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10568,7 +10570,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10620,7 +10622,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10670,7 +10672,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10720,7 +10722,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10772,7 +10774,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10822,7 +10824,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10872,7 +10874,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10922,7 +10924,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10972,7 +10974,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -11022,7 +11024,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11074,7 +11076,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -11124,7 +11126,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11176,7 +11178,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11226,7 +11228,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11276,7 +11278,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11328,7 +11330,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -11345,11 +11347,11 @@
         <v>110008</v>
       </c>
       <c r="K216" t="n">
-        <v>31481</v>
+        <v>36598</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>PART PAID</t>
+          <t>NM</t>
         </is>
       </c>
     </row>
@@ -11380,7 +11382,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11430,7 +11432,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -11482,7 +11484,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11532,7 +11534,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -11584,7 +11586,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11634,7 +11636,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11684,7 +11686,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11736,7 +11738,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11786,7 +11788,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11838,7 +11840,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11888,7 +11890,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11938,7 +11940,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11988,7 +11990,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -12040,7 +12042,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -12092,7 +12094,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -12142,7 +12144,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GURPREET SINGH</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -12192,7 +12194,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -12242,7 +12244,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -12294,7 +12296,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -12344,7 +12346,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -12394,7 +12396,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -12444,7 +12446,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -12494,7 +12496,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -12544,7 +12546,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -12560,10 +12562,12 @@
       <c r="J240" t="n">
         <v>335051</v>
       </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>32758</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
@@ -12594,7 +12598,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -12644,7 +12648,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -12694,7 +12698,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12744,7 +12748,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12760,10 +12764,12 @@
       <c r="J244" t="n">
         <v>222125</v>
       </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>4981</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
@@ -12794,7 +12800,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12846,7 +12852,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -12896,7 +12902,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12913,7 +12919,7 @@
         <v>122009</v>
       </c>
       <c r="K247" t="n">
-        <v>9143</v>
+        <v>20209</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -12948,7 +12954,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -13000,7 +13006,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -13050,7 +13056,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -13100,7 +13106,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -13150,7 +13156,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -13200,7 +13206,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -13250,7 +13256,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -13302,7 +13308,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -13352,7 +13358,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -13402,7 +13408,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -13452,7 +13458,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -13502,7 +13508,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -13552,7 +13558,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -13602,7 +13608,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -13654,7 +13660,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -13706,7 +13712,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -13758,7 +13764,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -13808,7 +13814,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -13860,7 +13866,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -13912,7 +13918,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -13962,7 +13968,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -14014,7 +14020,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -14066,7 +14072,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -14118,7 +14124,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -14170,7 +14176,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GURPREET SINGH</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -14220,7 +14226,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -14270,7 +14276,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -14320,7 +14326,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -14370,7 +14376,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -14420,7 +14426,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -14472,7 +14478,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -14522,7 +14528,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -14572,7 +14578,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -14622,7 +14628,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -14672,7 +14678,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -14722,7 +14728,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -14774,7 +14780,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14826,7 +14832,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -14876,7 +14882,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -14926,7 +14932,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -14976,7 +14982,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -15028,7 +15034,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -15080,7 +15086,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -15130,7 +15136,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -15147,7 +15153,7 @@
         <v>201102</v>
       </c>
       <c r="K291" t="n">
-        <v>4378</v>
+        <v>19541</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -15182,7 +15188,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -15234,7 +15240,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -15286,7 +15292,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -15338,7 +15344,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -15388,7 +15394,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -15438,7 +15444,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -15488,7 +15494,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -15538,7 +15544,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -15588,7 +15594,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -15638,7 +15644,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -15690,7 +15696,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -15740,7 +15746,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -15790,7 +15796,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -15842,7 +15848,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -15892,7 +15898,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -15942,7 +15948,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -15992,7 +15998,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -16042,7 +16048,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -16092,7 +16098,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -16142,7 +16148,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -16192,7 +16198,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -16242,7 +16248,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -16258,10 +16264,12 @@
       <c r="J313" t="n">
         <v>110091</v>
       </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>4378</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16300,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -16342,7 +16350,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -16392,7 +16400,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -16442,7 +16450,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -16492,7 +16500,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -16544,7 +16552,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -16594,7 +16602,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -16644,7 +16652,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -16694,7 +16702,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -16746,7 +16754,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -16798,7 +16806,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -16848,7 +16856,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -16898,7 +16906,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -16948,7 +16956,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -16998,7 +17006,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -17048,7 +17056,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -17100,7 +17108,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -17152,7 +17160,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -17202,7 +17210,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -17252,7 +17260,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -17302,7 +17310,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -17354,7 +17362,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -17404,7 +17412,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -17454,7 +17462,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -17504,7 +17512,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -17554,7 +17562,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -17604,7 +17612,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -17620,10 +17628,12 @@
       <c r="J340" t="n">
         <v>342005</v>
       </c>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>16183</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
@@ -17654,7 +17664,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -17704,7 +17714,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -17754,7 +17764,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -17804,7 +17814,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -17854,7 +17864,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -17906,7 +17916,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -17956,7 +17966,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -18008,7 +18018,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -18058,7 +18068,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -18108,7 +18118,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -18158,7 +18168,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -18208,7 +18218,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -18260,7 +18270,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -18312,7 +18322,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -18362,7 +18372,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -18414,7 +18424,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -18464,7 +18474,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -18516,7 +18526,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -18568,7 +18578,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -18618,7 +18628,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -18635,7 +18645,7 @@
         <v>110019</v>
       </c>
       <c r="K360" t="n">
-        <v>8138</v>
+        <v>9202</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -18670,7 +18680,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -18720,7 +18730,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -18770,7 +18780,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -18822,7 +18832,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -18872,7 +18882,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -18922,7 +18932,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -18972,7 +18982,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -19022,7 +19032,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -19072,7 +19082,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -19122,7 +19132,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -19172,7 +19182,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -19224,7 +19234,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -19274,7 +19284,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -19326,7 +19336,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -19376,7 +19386,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -19426,7 +19436,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -19476,7 +19486,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -19526,7 +19536,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -19578,7 +19588,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -19630,7 +19640,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -19680,7 +19690,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -19730,7 +19740,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -19780,7 +19790,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
@@ -19830,7 +19840,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -19882,7 +19892,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -19932,7 +19942,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -19982,7 +19992,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -20032,7 +20042,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -20082,7 +20092,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -20132,7 +20142,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -20149,7 +20159,7 @@
         <v>487881</v>
       </c>
       <c r="K390" t="n">
-        <v>3644</v>
+        <v>4567</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -20184,7 +20194,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -20234,7 +20244,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -20284,7 +20294,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -20334,7 +20344,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -20384,7 +20394,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -20434,7 +20444,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">

--- a/media/SLICE/MIS/FEB 22/SLICE MASTER FILE.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE MASTER FILE.xlsx
@@ -2582,7 +2582,7 @@
         <v>79941</v>
       </c>
       <c r="F43" t="n">
-        <v>79941</v>
+        <v>8961</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>PART PAID</t>
+          <t>NM</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
         <v>56261</v>
       </c>
       <c r="F97" t="n">
-        <v>19743</v>
+        <v>11992</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>PART PAID</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>PART PAID</t>
+          <t>SB</t>
         </is>
       </c>
     </row>
